--- a/Projects/GSKSG/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Include SubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
     <t xml:space="preserve">Facings SOS</t>
@@ -87,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,12 +127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +226,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -307,7 +300,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -325,23 +318,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -378,7 +371,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="ALZ1" s="0"/>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
@@ -390,31 +385,31 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="ALZ2" s="0"/>
+      <c r="L2" s="7"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -428,37 +423,38 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>

--- a/Projects/GSKSG/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oral ,Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -90,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,6 +130,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,6 +235,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -300,7 +317,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -318,21 +335,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -409,7 +426,9 @@
         <v>15</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -423,7 +442,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -445,11 +464,13 @@
         <v>15</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -458,6 +479,9 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKSG/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -200,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,10 +239,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -317,7 +313,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -335,21 +331,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O17" activeCellId="0" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -402,7 +398,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -426,7 +422,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="AMA2" s="0"/>
@@ -464,7 +460,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -479,7 +475,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Projects/GSKSG/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG/Data/gsk_set_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Include</t>
   </si>
   <si>
-    <t xml:space="preserve">Oral ,Pain</t>
+    <t xml:space="preserve">Oral Care ,Pain</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -93,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -130,12 +130,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,10 +229,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,30 +314,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="12" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -398,7 +388,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -422,7 +412,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AMA2" s="0"/>
@@ -482,7 +472,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/GSKSG/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG/Data/gsk_set_up.xlsx
@@ -10,11 +10,8 @@
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]set_up!$a$90:#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -68,22 +65,22 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care ,Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care ,Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
   </si>
 </sst>
 </file>
@@ -303,12 +300,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -316,26 +307,26 @@
   </sheetPr>
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="12" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.79"/>
   </cols>
@@ -388,7 +379,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -401,10 +392,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -413,7 +404,7 @@
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
@@ -426,9 +417,9 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -439,10 +430,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -451,22 +442,22 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="L4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKSG/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG/Data/gsk_set_up.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]set_up!$a$90:#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -63,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">Facings SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPER SUPER, PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Main shelf, Pain Main shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -129,7 +134,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +145,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -191,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,16 +227,20 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,33 +320,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="12" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.79"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="46.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -368,96 +383,80 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="L4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
